--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H2">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I2">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J2">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>2694.199453042673</v>
+        <v>137.7834019178604</v>
       </c>
       <c r="R2">
-        <v>2694.199453042673</v>
+        <v>1240.050617260744</v>
       </c>
       <c r="S2">
-        <v>0.0618947179240802</v>
+        <v>0.002872985660129619</v>
       </c>
       <c r="T2">
-        <v>0.0618947179240802</v>
+        <v>0.002872985660129619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H3">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I3">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J3">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>13702.99850148448</v>
+        <v>453.8634017248097</v>
       </c>
       <c r="R3">
-        <v>13702.99850148448</v>
+        <v>4084.770615523288</v>
       </c>
       <c r="S3">
-        <v>0.3148034292730748</v>
+        <v>0.009463716432189507</v>
       </c>
       <c r="T3">
-        <v>0.3148034292730748</v>
+        <v>0.009463716432189507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H4">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I4">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J4">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>15441.61217561163</v>
+        <v>541.640493850271</v>
       </c>
       <c r="R4">
-        <v>15441.61217561163</v>
+        <v>4874.76444465244</v>
       </c>
       <c r="S4">
-        <v>0.3547451651447521</v>
+        <v>0.01129399731837829</v>
       </c>
       <c r="T4">
-        <v>0.3547451651447521</v>
+        <v>0.01129399731837829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H5">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I5">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J5">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>6882.544140750007</v>
+        <v>228.1511670412782</v>
       </c>
       <c r="R5">
-        <v>6882.544140750007</v>
+        <v>2053.360503371503</v>
       </c>
       <c r="S5">
-        <v>0.1581149189643924</v>
+        <v>0.004757285871357647</v>
       </c>
       <c r="T5">
-        <v>0.1581149189643924</v>
+        <v>0.004757285871357647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H6">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I6">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J6">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>3.49999220028236</v>
+        <v>4180.893475483354</v>
       </c>
       <c r="R6">
-        <v>3.49999220028236</v>
+        <v>37628.04127935019</v>
       </c>
       <c r="S6">
-        <v>8.040645607299299E-05</v>
+        <v>0.08717775025437319</v>
       </c>
       <c r="T6">
-        <v>8.040645607299299E-05</v>
+        <v>0.08717775025437322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H7">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I7">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J7">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>17.80135016415094</v>
+        <v>13772.01105952635</v>
       </c>
       <c r="R7">
-        <v>17.80135016415094</v>
+        <v>123948.0995357371</v>
       </c>
       <c r="S7">
-        <v>0.0004089561913590254</v>
+        <v>0.2871665943387975</v>
       </c>
       <c r="T7">
-        <v>0.0004089561913590254</v>
+        <v>0.2871665943387975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H8">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I8">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J8">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>20.05995588537067</v>
+        <v>16435.51527451896</v>
       </c>
       <c r="R8">
-        <v>20.05995588537067</v>
+        <v>147919.6374706707</v>
       </c>
       <c r="S8">
-        <v>0.0004608438731929489</v>
+        <v>0.3427045568862054</v>
       </c>
       <c r="T8">
-        <v>0.0004608438731929489</v>
+        <v>0.3427045568862054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H9">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I9">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J9">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>8.941005011161858</v>
+        <v>6923.008957751282</v>
       </c>
       <c r="R9">
-        <v>8.941005011161858</v>
+        <v>62307.08061976154</v>
       </c>
       <c r="S9">
-        <v>0.0002054046082218121</v>
+        <v>0.1443548728200627</v>
       </c>
       <c r="T9">
-        <v>0.0002054046082218121</v>
+        <v>0.1443548728200628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.288177672303</v>
+        <v>0.405826</v>
       </c>
       <c r="H10">
-        <v>33.288177672303</v>
+        <v>1.217478</v>
       </c>
       <c r="I10">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="J10">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>330.9943020863146</v>
+        <v>6.233016872390666</v>
       </c>
       <c r="R10">
-        <v>330.9943020863146</v>
+        <v>56.097151851516</v>
       </c>
       <c r="S10">
-        <v>0.007604039462992845</v>
+        <v>0.0001299675276155529</v>
       </c>
       <c r="T10">
-        <v>0.007604039462992845</v>
+        <v>0.0001299675276155529</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.288177672303</v>
+        <v>0.405826</v>
       </c>
       <c r="H11">
-        <v>33.288177672303</v>
+        <v>1.217478</v>
       </c>
       <c r="I11">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="J11">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>1683.473886970918</v>
+        <v>20.53177814841467</v>
       </c>
       <c r="R11">
-        <v>1683.473886970918</v>
+        <v>184.786003335732</v>
       </c>
       <c r="S11">
-        <v>0.03867499165622073</v>
+        <v>0.0004281176351889135</v>
       </c>
       <c r="T11">
-        <v>0.03867499165622073</v>
+        <v>0.0004281176351889135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.288177672303</v>
+        <v>0.405826</v>
       </c>
       <c r="H12">
-        <v>33.288177672303</v>
+        <v>1.217478</v>
       </c>
       <c r="I12">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="J12">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>1897.070255649389</v>
+        <v>24.50261998140667</v>
       </c>
       <c r="R12">
-        <v>1897.070255649389</v>
+        <v>220.52357983266</v>
       </c>
       <c r="S12">
-        <v>0.04358201031589395</v>
+        <v>0.0005109155011585011</v>
       </c>
       <c r="T12">
-        <v>0.04358201031589395</v>
+        <v>0.0005109155011585011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.405826</v>
+      </c>
+      <c r="H13">
+        <v>1.217478</v>
+      </c>
+      <c r="I13">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="J13">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="N13">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="P13">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="Q13">
+        <v>10.32105503151733</v>
+      </c>
+      <c r="R13">
+        <v>92.889495283656</v>
+      </c>
+      <c r="S13">
+        <v>0.0002152091085734342</v>
+      </c>
+      <c r="T13">
+        <v>0.0002152091085734343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H14">
+        <v>103.263979</v>
+      </c>
+      <c r="I14">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J14">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.35884066666667</v>
+      </c>
+      <c r="N14">
+        <v>46.076522</v>
+      </c>
+      <c r="O14">
+        <v>0.1012042817263867</v>
+      </c>
+      <c r="P14">
+        <v>0.1012042817263867</v>
+      </c>
+      <c r="Q14">
+        <v>528.6716666890042</v>
+      </c>
+      <c r="R14">
+        <v>4758.045000201038</v>
+      </c>
+      <c r="S14">
+        <v>0.01102357828426828</v>
+      </c>
+      <c r="T14">
+        <v>0.01102357828426828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H15">
+        <v>103.263979</v>
+      </c>
+      <c r="I15">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J15">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.59256466666667</v>
+      </c>
+      <c r="N15">
+        <v>151.777694</v>
+      </c>
+      <c r="O15">
+        <v>0.3333704853712116</v>
+      </c>
+      <c r="P15">
+        <v>0.3333704853712116</v>
+      </c>
+      <c r="Q15">
+        <v>1741.463178431603</v>
+      </c>
+      <c r="R15">
+        <v>15673.16860588442</v>
+      </c>
+      <c r="S15">
+        <v>0.0363120569650356</v>
+      </c>
+      <c r="T15">
+        <v>0.0363120569650356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>33.288177672303</v>
-      </c>
-      <c r="H13">
-        <v>33.288177672303</v>
-      </c>
-      <c r="I13">
-        <v>0.109286157564854</v>
-      </c>
-      <c r="J13">
-        <v>0.109286157564854</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>25.4009382448175</v>
-      </c>
-      <c r="N13">
-        <v>25.4009382448175</v>
-      </c>
-      <c r="O13">
-        <v>0.1777454397023606</v>
-      </c>
-      <c r="P13">
-        <v>0.1777454397023606</v>
-      </c>
-      <c r="Q13">
-        <v>845.5509453366813</v>
-      </c>
-      <c r="R13">
-        <v>845.5509453366813</v>
-      </c>
-      <c r="S13">
-        <v>0.01942511612974643</v>
-      </c>
-      <c r="T13">
-        <v>0.01942511612974643</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H16">
+        <v>103.263979</v>
+      </c>
+      <c r="I16">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J16">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>60.37715666666667</v>
+      </c>
+      <c r="N16">
+        <v>181.13147</v>
+      </c>
+      <c r="O16">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="P16">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="Q16">
+        <v>2078.261812702126</v>
+      </c>
+      <c r="R16">
+        <v>18704.35631431913</v>
+      </c>
+      <c r="S16">
+        <v>0.04333480160003378</v>
+      </c>
+      <c r="T16">
+        <v>0.04333480160003378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H17">
+        <v>103.263979</v>
+      </c>
+      <c r="I17">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J17">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="N17">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="P17">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="Q17">
+        <v>875.410652210923</v>
+      </c>
+      <c r="R17">
+        <v>7878.695869898307</v>
+      </c>
+      <c r="S17">
+        <v>0.01825359379663192</v>
+      </c>
+      <c r="T17">
+        <v>0.01825359379663192</v>
       </c>
     </row>
   </sheetData>
